--- a/coefficients-template.xlsx
+++ b/coefficients-template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamoon/Sites/btc-selloff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF4A3B2D-8B1F-D344-8F80-D823661B84B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF12E6C2-5AD9-CD44-A80A-8F8D9CB47125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="660" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1340" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coefficients" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">coefficients!$A$1:$K$501</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +68,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -536,9 +550,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,17 +909,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -937,29 +957,29 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <f>SUBTOTAL(1,H:H)</f>
-        <v>1.3906438898793241E-4</v>
-      </c>
-      <c r="N1">
-        <f>SUBTOTAL(7,H:H)</f>
-        <v>1.8229261046530174E-5</v>
-      </c>
-      <c r="O1">
+        <v>1.2690877638947827E-4</v>
+      </c>
+      <c r="N1" s="2">
+        <f>STDEV(H:H)</f>
+        <v>3.4140352070046953E-5</v>
+      </c>
+      <c r="O1" s="2">
         <f>SUBTOTAL(1,I:I)</f>
-        <v>1.1117529605045248E-2</v>
-      </c>
-      <c r="P1">
-        <f>SUBTOTAL(7,I:I)</f>
-        <v>1.1618257691158309E-2</v>
-      </c>
-      <c r="Q1">
+        <v>1.7833645375064267E-2</v>
+      </c>
+      <c r="P1" s="2">
+        <f>STDEV(I:I)</f>
+        <v>1.5319971741265719E-2</v>
+      </c>
+      <c r="Q1" s="3">
         <f>SUBTOTAL(1,J:J)</f>
-        <v>2128.8888888888887</v>
-      </c>
-      <c r="R1">
-        <f>SUBTOTAL(7,J:J)</f>
-        <v>255.03951763512129</v>
+        <v>2021.0120481927711</v>
+      </c>
+      <c r="R1" s="3">
+        <f>STDEV(J:J)</f>
+        <v>499.54199624458397</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -5372,7 +5392,7 @@
         <v>0.99958362287501401</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0</v>
       </c>
@@ -5407,7 +5427,7 @@
         <v>1.00009695847491</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0</v>
       </c>
@@ -5442,7 +5462,7 @@
         <v>1.0040458823728899</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0</v>
       </c>
@@ -5477,7 +5497,7 @@
         <v>1.00485632040594</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0</v>
       </c>
@@ -5512,7 +5532,7 @@
         <v>1.0050493724042799</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0</v>
       </c>
@@ -5547,7 +5567,7 @@
         <v>1.00570545490917</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0</v>
       </c>
@@ -5582,7 +5602,7 @@
         <v>1.0058078700598401</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0</v>
       </c>
@@ -5617,7 +5637,7 @@
         <v>1.01167670140315</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0</v>
       </c>
@@ -5652,7 +5672,7 @@
         <v>1.0119365276769501</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0</v>
       </c>
@@ -5687,7 +5707,7 @@
         <v>1.0157216190007601</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -5722,7 +5742,7 @@
         <v>1.01787297451935</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0</v>
       </c>
@@ -5757,7 +5777,7 @@
         <v>1.0208288657770901</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -5792,7 +5812,7 @@
         <v>1.0220983369130201</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0</v>
       </c>
@@ -5827,7 +5847,7 @@
         <v>1.0223841747298601</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0</v>
       </c>
@@ -5862,7 +5882,7 @@
         <v>1.0247342514210001</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0</v>
       </c>
@@ -5897,7 +5917,7 @@
         <v>1.0275409075952999</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0</v>
       </c>
@@ -5932,7 +5952,7 @@
         <v>1.02802683073089</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0</v>
       </c>
@@ -5967,7 +5987,7 @@
         <v>1.02863719447538</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0</v>
       </c>
@@ -6002,7 +6022,7 @@
         <v>1.0288612520476299</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -6037,7 +6057,7 @@
         <v>1.0297206280098199</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0</v>
       </c>
@@ -6072,7 +6092,7 @@
         <v>1.0300833767836399</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0</v>
       </c>
@@ -6107,7 +6127,7 @@
         <v>1.0317171107343299</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0</v>
       </c>
@@ -6142,7 +6162,7 @@
         <v>1.03303438400314</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0</v>
       </c>
@@ -6177,7 +6197,7 @@
         <v>1.0352463030093499</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0</v>
       </c>
@@ -6212,7 +6232,7 @@
         <v>1.0370511105609399</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0</v>
       </c>
@@ -6247,7 +6267,7 @@
         <v>1.0372008294658699</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0</v>
       </c>
@@ -6282,7 +6302,7 @@
         <v>1.0372689429114801</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0</v>
       </c>
@@ -6317,7 +6337,7 @@
         <v>1.04024413748394</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -6352,7 +6372,7 @@
         <v>1.04200699344609</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0</v>
       </c>
@@ -6387,7 +6407,7 @@
         <v>1.0421865925313301</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0</v>
       </c>
@@ -6422,7 +6442,7 @@
         <v>1.04264732120782</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0</v>
       </c>
@@ -6457,7 +6477,7 @@
         <v>1.0427504861935699</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0</v>
       </c>
@@ -6492,7 +6512,7 @@
         <v>1.0467026786425799</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -6527,7 +6547,7 @@
         <v>1.0467195159177101</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0</v>
       </c>
@@ -6562,7 +6582,7 @@
         <v>1.0494076817461599</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0</v>
       </c>
@@ -6597,7 +6617,7 @@
         <v>1.0500444959425601</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0</v>
       </c>
@@ -6632,7 +6652,7 @@
         <v>1.05075852308421</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0</v>
       </c>
@@ -6667,7 +6687,7 @@
         <v>1.0508754925933701</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0</v>
       </c>
@@ -6702,7 +6722,7 @@
         <v>1.05334874130195</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0</v>
       </c>
@@ -6737,7 +6757,7 @@
         <v>1.0538882304728401</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0</v>
       </c>
@@ -6772,7 +6792,7 @@
         <v>1.05418057046339</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0</v>
       </c>
@@ -6807,7 +6827,7 @@
         <v>1.05457247793904</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0</v>
       </c>
@@ -6842,7 +6862,7 @@
         <v>1.0553986239553099</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -6877,7 +6897,7 @@
         <v>1.0574725492949599</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0</v>
       </c>
@@ -6912,7 +6932,7 @@
         <v>1.0582602121217899</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0</v>
       </c>
@@ -6947,7 +6967,7 @@
         <v>1.06074492900908</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0</v>
       </c>
@@ -6982,7 +7002,7 @@
         <v>1.06459668683371</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0</v>
       </c>
@@ -7017,7 +7037,7 @@
         <v>1.06630685172789</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0</v>
       </c>
@@ -7052,7 +7072,7 @@
         <v>1.0688019099816499</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0</v>
       </c>
@@ -7087,7 +7107,7 @@
         <v>1.0696454167075</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0</v>
       </c>
@@ -7122,7 +7142,7 @@
         <v>1.0700140920055901</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0</v>
       </c>
@@ -7157,7 +7177,7 @@
         <v>1.07159928117496</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0</v>
       </c>
@@ -7192,7 +7212,7 @@
         <v>1.07327856276844</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0</v>
       </c>
@@ -7227,7 +7247,7 @@
         <v>1.0739720103142301</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0</v>
       </c>
@@ -7262,7 +7282,7 @@
         <v>1.0753571019666699</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0</v>
       </c>
@@ -7297,7 +7317,7 @@
         <v>1.0756241376448299</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0</v>
       </c>
@@ -7332,7 +7352,7 @@
         <v>1.0772399548440099</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0</v>
       </c>
@@ -7367,7 +7387,7 @@
         <v>1.07921702467711</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0</v>
       </c>
@@ -7402,7 +7422,7 @@
         <v>1.0793560901021799</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0</v>
       </c>
@@ -7437,7 +7457,7 @@
         <v>1.0800913078129999</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0</v>
       </c>
@@ -7472,7 +7492,7 @@
         <v>1.08092878668824</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0</v>
       </c>
@@ -7507,7 +7527,7 @@
         <v>1.0826033692417001</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0</v>
       </c>
@@ -7542,7 +7562,7 @@
         <v>1.0834813131693699</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0</v>
       </c>
@@ -7577,7 +7597,7 @@
         <v>1.0845888310315801</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0</v>
       </c>
@@ -7612,7 +7632,7 @@
         <v>1.0877921689457599</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -7647,7 +7667,7 @@
         <v>1.08796091628345</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0</v>
       </c>
@@ -7682,7 +7702,7 @@
         <v>1.08934654996516</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -7717,7 +7737,7 @@
         <v>1.0896433221936299</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0</v>
       </c>
@@ -7752,7 +7772,7 @@
         <v>1.09061850453759</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0</v>
       </c>
@@ -7787,7 +7807,7 @@
         <v>1.09283147493235</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0</v>
       </c>
@@ -7822,7 +7842,7 @@
         <v>1.0972817704670501</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0</v>
       </c>
@@ -7857,7 +7877,7 @@
         <v>1.1014215917808301</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0</v>
       </c>
@@ -7892,7 +7912,7 @@
         <v>1.10201799277552</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0</v>
       </c>
@@ -7927,7 +7947,7 @@
         <v>1.10211400240666</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0</v>
       </c>
@@ -7962,7 +7982,7 @@
         <v>1.1029191201367801</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0</v>
       </c>
@@ -7997,7 +8017,7 @@
         <v>1.10316139451955</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0</v>
       </c>
@@ -8032,7 +8052,7 @@
         <v>1.10532815561594</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0</v>
       </c>
@@ -8067,7 +8087,7 @@
         <v>1.1054960618105201</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0</v>
       </c>
@@ -8102,7 +8122,7 @@
         <v>1.10564955768701</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0</v>
       </c>
@@ -8137,7 +8157,7 @@
         <v>1.1065440760280101</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0</v>
       </c>
@@ -8172,7 +8192,7 @@
         <v>1.1069519838324799</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0</v>
       </c>
@@ -8207,7 +8227,7 @@
         <v>1.1085803387702999</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0</v>
       </c>
@@ -8242,7 +8262,7 @@
         <v>1.1132601021653299</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0</v>
       </c>
@@ -8277,7 +8297,7 @@
         <v>1.1138534213606199</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0</v>
       </c>
@@ -8312,7 +8332,7 @@
         <v>1.11571266401104</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0</v>
       </c>
@@ -8347,7 +8367,7 @@
         <v>1.11600168027235</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0</v>
       </c>
@@ -8382,7 +8402,7 @@
         <v>1.11666684310796</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -8417,7 +8437,7 @@
         <v>1.1167717660123599</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0</v>
       </c>
@@ -8452,7 +8472,7 @@
         <v>1.1170760735016401</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0</v>
       </c>
@@ -8487,7 +8507,7 @@
         <v>1.1179335201534999</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0</v>
       </c>
@@ -8522,7 +8542,7 @@
         <v>1.1206828765341099</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0</v>
       </c>
@@ -8557,7 +8577,7 @@
         <v>1.1214715573101799</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0</v>
       </c>
@@ -8592,7 +8612,7 @@
         <v>1.1252566054962501</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0</v>
       </c>
@@ -8627,7 +8647,7 @@
         <v>1.12696033476827</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0</v>
       </c>
@@ -8662,7 +8682,7 @@
         <v>1.1272516208436401</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -8697,7 +8717,7 @@
         <v>1.1300668387188699</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0</v>
       </c>
@@ -8732,7 +8752,7 @@
         <v>1.1319689627049001</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -8767,7 +8787,7 @@
         <v>1.1321854831277101</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0</v>
       </c>
@@ -8802,7 +8822,7 @@
         <v>1.13288459165905</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0</v>
       </c>
@@ -8837,7 +8857,7 @@
         <v>1.1356522539968901</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0</v>
       </c>
@@ -8872,7 +8892,7 @@
         <v>1.1409577924846399</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0</v>
       </c>
@@ -8907,7 +8927,7 @@
         <v>1.1414696871404599</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0</v>
       </c>
@@ -8942,7 +8962,7 @@
         <v>1.14808609988522</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0</v>
       </c>
@@ -8977,7 +8997,7 @@
         <v>1.1501720958466699</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0</v>
       </c>
@@ -9012,7 +9032,7 @@
         <v>1.1508242632442101</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0</v>
       </c>
@@ -9047,7 +9067,7 @@
         <v>1.1509070535105901</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0</v>
       </c>
@@ -9082,7 +9102,7 @@
         <v>1.1577388104956301</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0</v>
       </c>
@@ -9117,7 +9137,7 @@
         <v>1.15781893084807</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0</v>
       </c>
@@ -9152,7 +9172,7 @@
         <v>1.1595971950848001</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0</v>
       </c>
@@ -9187,7 +9207,7 @@
         <v>1.16034941160409</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0</v>
       </c>
@@ -9222,7 +9242,7 @@
         <v>1.1610028703433199</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0</v>
       </c>
@@ -9257,7 +9277,7 @@
         <v>1.1611947600288901</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0</v>
       </c>
@@ -9292,7 +9312,7 @@
         <v>1.1620704646401301</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -9327,7 +9347,7 @@
         <v>1.1628204625970699</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0</v>
       </c>
@@ -9362,7 +9382,7 @@
         <v>1.1639918686788799</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0</v>
       </c>
@@ -9397,7 +9417,7 @@
         <v>1.1644281475281499</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0</v>
       </c>
@@ -9432,7 +9452,7 @@
         <v>1.1655889393466401</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0</v>
       </c>
@@ -9467,7 +9487,7 @@
         <v>1.1686208487357399</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0</v>
       </c>
@@ -9502,7 +9522,7 @@
         <v>1.1724380294433201</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0</v>
       </c>
@@ -9537,7 +9557,7 @@
         <v>1.1747367212081199</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0</v>
       </c>
@@ -9572,7 +9592,7 @@
         <v>1.1773046581247499</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0</v>
       </c>
@@ -9607,7 +9627,7 @@
         <v>1.17732577319501</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0</v>
       </c>
@@ -9642,7 +9662,7 @@
         <v>1.1783597658274301</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0</v>
       </c>
@@ -9677,7 +9697,7 @@
         <v>1.18290866877179</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0</v>
       </c>
@@ -9712,7 +9732,7 @@
         <v>1.1849428347597299</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0</v>
       </c>
@@ -9747,7 +9767,7 @@
         <v>1.18695389314147</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0</v>
       </c>
@@ -9782,7 +9802,7 @@
         <v>1.19115526684316</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0</v>
       </c>
@@ -9817,7 +9837,7 @@
         <v>1.1915095238072799</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0</v>
       </c>
@@ -9852,7 +9872,7 @@
         <v>1.19270091602187</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0</v>
       </c>
@@ -9887,7 +9907,7 @@
         <v>1.1938628013394701</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0</v>
       </c>
@@ -9922,7 +9942,7 @@
         <v>1.20016401793883</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0</v>
       </c>
@@ -9957,7 +9977,7 @@
         <v>1.20124813450764</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0</v>
       </c>
@@ -9992,7 +10012,7 @@
         <v>1.2017190647563301</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0</v>
       </c>
@@ -10027,7 +10047,7 @@
         <v>1.2050929155318899</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0</v>
       </c>
@@ -10062,7 +10082,7 @@
         <v>1.20549881131531</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0</v>
       </c>
@@ -10097,7 +10117,7 @@
         <v>1.20909989614686</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0</v>
       </c>
@@ -10132,7 +10152,7 @@
         <v>1.20981186719584</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0</v>
       </c>
@@ -10167,7 +10187,7 @@
         <v>1.2106815307071499</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0</v>
       </c>
@@ -10202,7 +10222,7 @@
         <v>1.2148817544309001</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0</v>
       </c>
@@ -10237,7 +10257,7 @@
         <v>1.21580305248901</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0</v>
       </c>
@@ -10272,7 +10292,7 @@
         <v>1.2160265678081601</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0</v>
       </c>
@@ -10307,7 +10327,7 @@
         <v>1.2183070183533999</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0</v>
       </c>
@@ -10342,7 +10362,7 @@
         <v>1.2299777452958001</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0</v>
       </c>
@@ -10377,7 +10397,7 @@
         <v>1.23553598966447</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0</v>
       </c>
@@ -10412,7 +10432,7 @@
         <v>1.2394638359588701</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0</v>
       </c>
@@ -10447,7 +10467,7 @@
         <v>1.2414179662261799</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0</v>
       </c>
@@ -10482,7 +10502,7 @@
         <v>1.2435019301325301</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0</v>
       </c>
@@ -10517,7 +10537,7 @@
         <v>1.2436742101392</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0</v>
       </c>
@@ -10552,7 +10572,7 @@
         <v>1.24394847111805</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0</v>
       </c>
@@ -10587,7 +10607,7 @@
         <v>1.24492384865031</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0</v>
       </c>
@@ -10622,7 +10642,7 @@
         <v>1.24645133873674</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0</v>
       </c>
@@ -10657,7 +10677,7 @@
         <v>1.2470484386882199</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0</v>
       </c>
@@ -10692,7 +10712,7 @@
         <v>1.2471099088841</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0</v>
       </c>
@@ -10727,7 +10747,7 @@
         <v>1.24826475646173</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0</v>
       </c>
@@ -10762,7 +10782,7 @@
         <v>1.24836829134564</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0</v>
       </c>
@@ -10797,7 +10817,7 @@
         <v>1.2506574797646901</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0</v>
       </c>
@@ -10832,7 +10852,7 @@
         <v>1.25078634850407</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0</v>
       </c>
@@ -10867,7 +10887,7 @@
         <v>1.2519929116230599</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0</v>
       </c>
@@ -10902,7 +10922,7 @@
         <v>1.25734661954619</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0</v>
       </c>
@@ -10937,7 +10957,7 @@
         <v>1.25753582936894</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0</v>
       </c>
@@ -10972,7 +10992,7 @@
         <v>1.25955411971213</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0</v>
       </c>
@@ -11007,7 +11027,7 @@
         <v>1.2617595495587199</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0</v>
       </c>
@@ -11042,7 +11062,7 @@
         <v>1.26447444845154</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0</v>
       </c>
@@ -11077,7 +11097,7 @@
         <v>1.26683272250395</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0</v>
       </c>
@@ -11112,7 +11132,7 @@
         <v>1.2675446733224001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0</v>
       </c>
@@ -11147,7 +11167,7 @@
         <v>1.2690029085358601</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0</v>
       </c>
@@ -11182,7 +11202,7 @@
         <v>1.2692795072647201</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0</v>
       </c>
@@ -11217,7 +11237,7 @@
         <v>1.2710904670147201</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0</v>
       </c>
@@ -11252,7 +11272,7 @@
         <v>1.2772948030620901</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0</v>
       </c>
@@ -11287,7 +11307,7 @@
         <v>1.2825376487101501</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0</v>
       </c>
@@ -11322,7 +11342,7 @@
         <v>1.28690506343823</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0</v>
       </c>
@@ -11357,7 +11377,7 @@
         <v>1.28782303735043</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0</v>
       </c>
@@ -11392,7 +11412,7 @@
         <v>1.28921061748168</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0</v>
       </c>
@@ -11427,7 +11447,7 @@
         <v>1.2900962243132601</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0</v>
       </c>
@@ -11462,7 +11482,7 @@
         <v>1.2933773497111301</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0</v>
       </c>
@@ -11497,7 +11517,7 @@
         <v>1.2938581792086701</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0</v>
       </c>
@@ -11532,7 +11552,7 @@
         <v>1.2946187244345699</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0</v>
       </c>
@@ -11567,7 +11587,7 @@
         <v>1.2967188272806101</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0</v>
       </c>
@@ -11602,7 +11622,7 @@
         <v>1.2974235545574799</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0</v>
       </c>
@@ -11637,7 +11657,7 @@
         <v>1.2994502651520801</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0</v>
       </c>
@@ -11672,7 +11692,7 @@
         <v>1.30155906894624</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0</v>
       </c>
@@ -11707,7 +11727,7 @@
         <v>1.30231491635956</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0</v>
       </c>
@@ -11742,7 +11762,7 @@
         <v>1.3031499944605001</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0</v>
       </c>
@@ -11777,7 +11797,7 @@
         <v>1.30780263579184</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0</v>
       </c>
@@ -11812,7 +11832,7 @@
         <v>1.3134195936975701</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0</v>
       </c>
@@ -11847,7 +11867,7 @@
         <v>1.3137215042928401</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0</v>
       </c>
@@ -11882,7 +11902,7 @@
         <v>1.3167530749496501</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0</v>
       </c>
@@ -11917,7 +11937,7 @@
         <v>1.31708553591524</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0</v>
       </c>
@@ -11952,7 +11972,7 @@
         <v>1.3249121003581501</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0</v>
       </c>
@@ -11987,7 +12007,7 @@
         <v>1.3265712110894601</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0</v>
       </c>
@@ -12022,7 +12042,7 @@
         <v>1.3286356033311499</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0</v>
       </c>
@@ -12057,7 +12077,7 @@
         <v>1.33310467905098</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0</v>
       </c>
@@ -12092,7 +12112,7 @@
         <v>1.33377312470693</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0</v>
       </c>
@@ -12127,7 +12147,7 @@
         <v>1.3359742236596801</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0</v>
       </c>
@@ -12162,7 +12182,7 @@
         <v>1.33799841268944</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0</v>
       </c>
@@ -12197,7 +12217,7 @@
         <v>1.3401680047386</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0</v>
       </c>
@@ -12232,7 +12252,7 @@
         <v>1.3424043325353301</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0</v>
       </c>
@@ -12267,7 +12287,7 @@
         <v>1.3511641312173699</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0</v>
       </c>
@@ -12302,7 +12322,7 @@
         <v>1.3522208464279299</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0</v>
       </c>
@@ -12337,7 +12357,7 @@
         <v>1.3542522076774099</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0</v>
       </c>
@@ -12372,7 +12392,7 @@
         <v>1.35525622134125</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0</v>
       </c>
@@ -12407,7 +12427,7 @@
         <v>1.35729703439912</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0</v>
       </c>
@@ -12442,7 +12462,7 @@
         <v>1.3594462750637999</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0</v>
       </c>
@@ -12477,7 +12497,7 @@
         <v>1.36174760093889</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0</v>
       </c>
@@ -12512,7 +12532,7 @@
         <v>1.3645092846948501</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0</v>
       </c>
@@ -12547,7 +12567,7 @@
         <v>1.36829490989463</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0</v>
       </c>
@@ -12582,7 +12602,7 @@
         <v>1.3701929928008101</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0</v>
       </c>
@@ -12617,7 +12637,7 @@
         <v>1.37367835938719</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0</v>
       </c>
@@ -12652,7 +12672,7 @@
         <v>1.3744857873327301</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0</v>
       </c>
@@ -12687,7 +12707,7 @@
         <v>1.37513659717473</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0</v>
       </c>
@@ -12722,7 +12742,7 @@
         <v>1.38657532426567</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0</v>
       </c>
@@ -12757,7 +12777,7 @@
         <v>1.3911317125979601</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0</v>
       </c>
@@ -12792,7 +12812,7 @@
         <v>1.39258121611415</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0</v>
       </c>
@@ -12827,7 +12847,7 @@
         <v>1.39370994614726</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0</v>
       </c>
@@ -12862,7 +12882,7 @@
         <v>1.3978865099803801</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0</v>
       </c>
@@ -12897,7 +12917,7 @@
         <v>1.3984993052394601</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0</v>
       </c>
@@ -12932,7 +12952,7 @@
         <v>1.40054737871302</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0</v>
       </c>
@@ -12967,7 +12987,7 @@
         <v>1.4023957687620301</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0</v>
       </c>
@@ -13002,7 +13022,7 @@
         <v>1.4057827966055301</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0</v>
       </c>
@@ -13037,7 +13057,7 @@
         <v>1.4119051247291601</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0</v>
       </c>
@@ -13072,7 +13092,7 @@
         <v>1.4120511647854901</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0</v>
       </c>
@@ -13107,7 +13127,7 @@
         <v>1.4179782376197001</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0</v>
       </c>
@@ -13142,7 +13162,7 @@
         <v>1.4193100151914</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0</v>
       </c>
@@ -13177,7 +13197,7 @@
         <v>1.41972727658106</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0</v>
       </c>
@@ -13212,7 +13232,7 @@
         <v>1.4263228198754201</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0</v>
       </c>
@@ -13247,7 +13267,7 @@
         <v>1.4276589330045899</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0</v>
       </c>
@@ -13282,7 +13302,7 @@
         <v>1.42910674082495</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0</v>
       </c>
@@ -13317,7 +13337,7 @@
         <v>1.43003784776611</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0</v>
       </c>
@@ -13352,7 +13372,7 @@
         <v>1.43050619972461</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0</v>
       </c>
@@ -13387,7 +13407,7 @@
         <v>1.4361109617618799</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0</v>
       </c>
@@ -13422,7 +13442,7 @@
         <v>1.44573088804265</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0</v>
       </c>
@@ -13457,7 +13477,7 @@
         <v>1.45004827808246</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0</v>
       </c>
@@ -13492,7 +13512,7 @@
         <v>1.4577526732672501</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0</v>
       </c>
@@ -13527,7 +13547,7 @@
         <v>1.46165625543075</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0</v>
       </c>
@@ -13562,7 +13582,7 @@
         <v>1.46363231892555</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0</v>
       </c>
@@ -13597,7 +13617,7 @@
         <v>1.4658185083989801</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0</v>
       </c>
@@ -13632,7 +13652,7 @@
         <v>1.4773677119155699</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0</v>
       </c>
@@ -13667,7 +13687,7 @@
         <v>1.47784945306687</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0</v>
       </c>
@@ -13702,7 +13722,7 @@
         <v>1.480233236486</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0</v>
       </c>
@@ -13737,7 +13757,7 @@
         <v>1.4825047674496701</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0</v>
       </c>
@@ -13772,7 +13792,7 @@
         <v>1.49357626808445</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0</v>
       </c>
@@ -13807,7 +13827,7 @@
         <v>1.49936180944902</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0</v>
       </c>
@@ -13842,7 +13862,7 @@
         <v>1.5020950449637001</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0</v>
       </c>
@@ -13877,7 +13897,7 @@
         <v>1.50213529641372</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0</v>
       </c>
@@ -13912,7 +13932,7 @@
         <v>1.5047799604163401</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0</v>
       </c>
@@ -13947,7 +13967,7 @@
         <v>1.50839428456887</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0</v>
       </c>
@@ -13982,7 +14002,7 @@
         <v>1.5103770169202499</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0</v>
       </c>
@@ -14017,7 +14037,7 @@
         <v>1.5110052583590401</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0</v>
       </c>
@@ -14052,7 +14072,7 @@
         <v>1.51522097102636</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0</v>
       </c>
@@ -14087,7 +14107,7 @@
         <v>1.5164469555903199</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0</v>
       </c>
@@ -14122,7 +14142,7 @@
         <v>1.5175243001949099</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0</v>
       </c>
@@ -14157,7 +14177,7 @@
         <v>1.5201129500038599</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0</v>
       </c>
@@ -14192,7 +14212,7 @@
         <v>1.5328716980500501</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0</v>
       </c>
@@ -14227,7 +14247,7 @@
         <v>1.5349924411593101</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0</v>
       </c>
@@ -14262,7 +14282,7 @@
         <v>1.5391838182569499</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0</v>
       </c>
@@ -14297,7 +14317,7 @@
         <v>1.5525382655762501</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0</v>
       </c>
@@ -14332,7 +14352,7 @@
         <v>1.55343415481292</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0</v>
       </c>
@@ -14367,7 +14387,7 @@
         <v>1.57779329594808</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0</v>
       </c>
@@ -14402,7 +14422,7 @@
         <v>1.5876470389225901</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0</v>
       </c>
@@ -14437,7 +14457,7 @@
         <v>1.6085867837674399</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0</v>
       </c>
@@ -14472,7 +14492,7 @@
         <v>1.6095553755851799</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0</v>
       </c>
@@ -14507,7 +14527,7 @@
         <v>1.6171701629715001</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0</v>
       </c>
@@ -14542,7 +14562,7 @@
         <v>1.62140986400283</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0</v>
       </c>
@@ -14577,7 +14597,7 @@
         <v>1.6255066164630201</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0</v>
       </c>
@@ -14612,7 +14632,7 @@
         <v>1.6308847594373299</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0</v>
       </c>
@@ -14647,7 +14667,7 @@
         <v>1.6329169792837599</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0</v>
       </c>
@@ -14682,7 +14702,7 @@
         <v>1.6356136498563301</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0</v>
       </c>
@@ -14717,7 +14737,7 @@
         <v>1.6487278729950801</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0</v>
       </c>
@@ -14752,7 +14772,7 @@
         <v>1.6490667121042799</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0</v>
       </c>
@@ -14787,7 +14807,7 @@
         <v>1.6526561303393701</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0</v>
       </c>
@@ -14822,7 +14842,7 @@
         <v>1.66209592654213</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0</v>
       </c>
@@ -14857,7 +14877,7 @@
         <v>1.66810797513153</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0</v>
       </c>
@@ -14892,7 +14912,7 @@
         <v>1.6741659007007299</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0</v>
       </c>
@@ -14927,7 +14947,7 @@
         <v>1.67517896751851</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0</v>
       </c>
@@ -14962,7 +14982,7 @@
         <v>1.68947222442475</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0</v>
       </c>
@@ -14997,7 +15017,7 @@
         <v>1.70587842287048</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0</v>
       </c>
@@ -15032,7 +15052,7 @@
         <v>1.71223201203122</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0</v>
       </c>
@@ -15067,7 +15087,7 @@
         <v>1.7158766407663999</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0</v>
       </c>
@@ -15102,7 +15122,7 @@
         <v>1.71986319199284</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0</v>
       </c>
@@ -15137,7 +15157,7 @@
         <v>1.7754137267896299</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0</v>
       </c>
@@ -15172,7 +15192,7 @@
         <v>1.7827339359285901</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0</v>
       </c>
@@ -15207,7 +15227,7 @@
         <v>1.7841323441653201</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0</v>
       </c>
@@ -15242,7 +15262,7 @@
         <v>1.81615176696174</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0</v>
       </c>
@@ -15277,7 +15297,7 @@
         <v>1.8303716381966599</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0</v>
       </c>
@@ -15312,7 +15332,7 @@
         <v>1.8387724356584101</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0</v>
       </c>
@@ -15347,7 +15367,7 @@
         <v>1.86646618231025</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0</v>
       </c>
@@ -15382,7 +15402,7 @@
         <v>1.9187187454193499</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0</v>
       </c>
@@ -15417,7 +15437,7 @@
         <v>1.9411627724503</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0</v>
       </c>
@@ -15452,7 +15472,7 @@
         <v>1.98272553309058</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0</v>
       </c>
@@ -18463,10 +18483,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K501">
+  <autoFilter ref="A1:K501" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="10">
       <customFilters>
-        <customFilter operator="lessThanOrEqual" val="1"/>
+        <customFilter operator="lessThanOrEqual" val="2"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K501">

--- a/coefficients-template.xlsx
+++ b/coefficients-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamoon/Sites/btc-selloff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF12E6C2-5AD9-CD44-A80A-8F8D9CB47125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187FBA84-9EE1-6648-A7B8-D9C3DFAC7CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,7 +914,7 @@
   <dimension ref="A1:R501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N19" sqref="N19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="M1" s="2">
         <f>SUBTOTAL(1,H:H)</f>
-        <v>1.2690877638947827E-4</v>
+        <v>1.3906438898793241E-4</v>
       </c>
       <c r="N1" s="2">
         <f>STDEV(H:H)</f>
@@ -967,7 +967,7 @@
       </c>
       <c r="O1" s="2">
         <f>SUBTOTAL(1,I:I)</f>
-        <v>1.7833645375064267E-2</v>
+        <v>1.1117529605045248E-2</v>
       </c>
       <c r="P1" s="2">
         <f>STDEV(I:I)</f>
@@ -975,7 +975,7 @@
       </c>
       <c r="Q1" s="3">
         <f>SUBTOTAL(1,J:J)</f>
-        <v>2021.0120481927711</v>
+        <v>2128.8888888888887</v>
       </c>
       <c r="R1" s="3">
         <f>STDEV(J:J)</f>
@@ -5392,7 +5392,7 @@
         <v>0.99958362287501401</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>1.00009695847491</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>1.0040458823728899</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>1.00485632040594</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>1.0050493724042799</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>1.00570545490917</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>1.0058078700598401</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1.01167670140315</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1.0119365276769501</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1.0157216190007601</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>1.01787297451935</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>1.0208288657770901</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>1.0220983369130201</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1.0223841747298601</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>1.0247342514210001</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>1.0275409075952999</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>1.02802683073089</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>1.02863719447538</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>1.0288612520476299</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>1.0297206280098199</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>1.0300833767836399</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>1.0317171107343299</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>1.03303438400314</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>1.0352463030093499</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>1.0370511105609399</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>1.0372008294658699</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>1.0372689429114801</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>1.04024413748394</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>1.04200699344609</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>1.0421865925313301</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1.04264732120782</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1.0427504861935699</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>1.0467026786425799</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>1.0467195159177101</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1.0494076817461599</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>1.0500444959425601</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>1.05075852308421</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1.0508754925933701</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1.05334874130195</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>1.0538882304728401</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>1.05418057046339</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>1.05457247793904</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>1.0553986239553099</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1.0574725492949599</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>1.0582602121217899</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>1.06074492900908</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1.06459668683371</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1.06630685172789</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>1.0688019099816499</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1.0696454167075</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>1.0700140920055901</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>1.07159928117496</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1.07327856276844</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>1.0739720103142301</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>1.0753571019666699</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>1.0756241376448299</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1.0772399548440099</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>1.07921702467711</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>1.0793560901021799</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1.0800913078129999</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1.08092878668824</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>1.0826033692417001</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>1.0834813131693699</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>1.0845888310315801</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>1.0877921689457599</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1.08796091628345</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>1.08934654996516</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>1.0896433221936299</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>1.09061850453759</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1.09283147493235</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>1.0972817704670501</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>1.1014215917808301</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>1.10201799277552</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>1.10211400240666</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>1.1029191201367801</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>1.10316139451955</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>1.10532815561594</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>1.1054960618105201</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>1.10564955768701</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1.1065440760280101</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>1.1069519838324799</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>1.1085803387702999</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>1.1132601021653299</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1.1138534213606199</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1.11571266401104</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>1.11600168027235</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>1.11666684310796</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>1.1167717660123599</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>1.1170760735016401</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>1.1179335201534999</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>1.1206828765341099</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>1.1214715573101799</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>1.1252566054962501</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>1.12696033476827</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>1.1272516208436401</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>1.1300668387188699</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>1.1319689627049001</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>1.1321854831277101</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1.13288459165905</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>1.1356522539968901</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1.1409577924846399</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>1.1414696871404599</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>1.14808609988522</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>1.1501720958466699</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1.1508242632442101</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1.1509070535105901</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>1.1577388104956301</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>1.15781893084807</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>1.1595971950848001</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1.16034941160409</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>1.1610028703433199</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>1.1611947600288901</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>1.1620704646401301</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>1.1628204625970699</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>1.1639918686788799</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>1.1644281475281499</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1.1655889393466401</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>1.1686208487357399</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>1.1724380294433201</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>1.1747367212081199</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1.1773046581247499</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>1.17732577319501</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>1.1783597658274301</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>1.18290866877179</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>1.1849428347597299</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>1.18695389314147</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1.19115526684316</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>1.1915095238072799</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1.19270091602187</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>1.1938628013394701</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>1.20016401793883</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>1.20124813450764</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>1.2017190647563301</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>1.2050929155318899</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>1.20549881131531</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>1.20909989614686</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>1.20981186719584</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>1.2106815307071499</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>1.2148817544309001</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>1.21580305248901</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>1.2160265678081601</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1.2183070183533999</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>1.2299777452958001</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>1.23553598966447</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>1.2394638359588701</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>1.2414179662261799</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>1.2435019301325301</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1.2436742101392</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1.24394847111805</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>1.24492384865031</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>1.24645133873674</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1.2470484386882199</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>1.2471099088841</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1.24826475646173</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>1.24836829134564</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>1.2506574797646901</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>1.25078634850407</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>1.2519929116230599</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>1.25734661954619</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1.25753582936894</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>1.25955411971213</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>1.2617595495587199</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>1.26447444845154</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>1.26683272250395</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>1.2675446733224001</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>1.2690029085358601</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>1.2692795072647201</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>1.2710904670147201</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>1.2772948030620901</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>1.2825376487101501</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>1.28690506343823</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>1.28782303735043</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>1.28921061748168</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>1.2900962243132601</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>1.2933773497111301</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>1.2938581792086701</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>1.2946187244345699</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>1.2967188272806101</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>1.2974235545574799</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>1.2994502651520801</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>1.30155906894624</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>1.30231491635956</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>1.3031499944605001</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>1.30780263579184</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>1.3134195936975701</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>1.3137215042928401</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>1.3167530749496501</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>1.31708553591524</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1.3249121003581501</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>1.3265712110894601</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>1.3286356033311499</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>1.33310467905098</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>1.33377312470693</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>1.3359742236596801</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>1.33799841268944</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>1.3401680047386</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>1.3424043325353301</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>1.3511641312173699</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>1.3522208464279299</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>1.3542522076774099</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>1.35525622134125</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>1.35729703439912</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>1.3594462750637999</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>1.36174760093889</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>1.3645092846948501</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>1.36829490989463</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>1.3701929928008101</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>1.37367835938719</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>1.3744857873327301</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>1.37513659717473</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>1.38657532426567</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>1.3911317125979601</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>1.39258121611415</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>1.39370994614726</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>1.3978865099803801</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>1.3984993052394601</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>1.40054737871302</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>1.4023957687620301</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>1.4057827966055301</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>1.4119051247291601</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>1.4120511647854901</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>1.4179782376197001</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>1.4193100151914</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>1.41972727658106</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1.4263228198754201</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>1.4276589330045899</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>1.42910674082495</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>1.43003784776611</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>1.43050619972461</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>1.4361109617618799</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>1.44573088804265</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>1.45004827808246</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>1.4577526732672501</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>1.46165625543075</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>1.46363231892555</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>1.4658185083989801</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>1.4773677119155699</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>1.47784945306687</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>1.480233236486</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>1.4825047674496701</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>1.49357626808445</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>1.49936180944902</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>1.5020950449637001</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>1.50213529641372</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>1.5047799604163401</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>1.50839428456887</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>1.5103770169202499</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>1.5110052583590401</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>1.51522097102636</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>1.5164469555903199</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>1.5175243001949099</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>1.5201129500038599</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>1.5328716980500501</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>1.5349924411593101</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>1.5391838182569499</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>1.5525382655762501</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>1.55343415481292</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>1.57779329594808</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>1.5876470389225901</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>1.6085867837674399</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>1.6095553755851799</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>1.6171701629715001</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>1.62140986400283</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>1.6255066164630201</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>1.6308847594373299</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>1.6329169792837599</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>1.6356136498563301</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>1.6487278729950801</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>1.6490667121042799</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>1.6526561303393701</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>1.66209592654213</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>1.66810797513153</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>1.6741659007007299</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>1.67517896751851</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0</v>
       </c>
@@ -14982,7 +14982,7 @@
         <v>1.68947222442475</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>1.70587842287048</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>1.71223201203122</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>1.7158766407663999</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>1.71986319199284</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>1.7754137267896299</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>1.7827339359285901</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>1.7841323441653201</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>1.81615176696174</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>1.8303716381966599</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>1.8387724356584101</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>1.86646618231025</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1.9187187454193499</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>1.9411627724503</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>1.98272553309058</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0</v>
       </c>
@@ -18486,7 +18486,7 @@
   <autoFilter ref="A1:K501" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="10">
       <customFilters>
-        <customFilter operator="lessThanOrEqual" val="2"/>
+        <customFilter operator="lessThanOrEqual" val="1"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K501">

--- a/coefficients-template.xlsx
+++ b/coefficients-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamoon/Sites/btc-selloff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187FBA84-9EE1-6648-A7B8-D9C3DFAC7CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B078119C-5CD9-4342-9E6F-B2BF3D6BDD36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,8 +70,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -553,8 +553,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:R501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19:N20"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,24 +962,24 @@
         <v>1.3906438898793241E-4</v>
       </c>
       <c r="N1" s="2">
-        <f>STDEV(H:H)</f>
-        <v>3.4140352070046953E-5</v>
+        <f>SUBTOTAL(7,H:H)</f>
+        <v>1.8229261046530174E-5</v>
       </c>
       <c r="O1" s="2">
         <f>SUBTOTAL(1,I:I)</f>
         <v>1.1117529605045248E-2</v>
       </c>
       <c r="P1" s="2">
-        <f>STDEV(I:I)</f>
-        <v>1.5319971741265719E-2</v>
+        <f>SUBTOTAL(7,I:I)</f>
+        <v>1.1618257691158309E-2</v>
       </c>
       <c r="Q1" s="3">
         <f>SUBTOTAL(1,J:J)</f>
         <v>2128.8888888888887</v>
       </c>
-      <c r="R1" s="3">
-        <f>STDEV(J:J)</f>
-        <v>499.54199624458397</v>
+      <c r="R1" s="2">
+        <f>SUBTOTAL(7,J:J)</f>
+        <v>255.03951763512129</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
